--- a/Graph Data.xlsx
+++ b/Graph Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/CS Classes/artificial-life/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9818C0B2-7907-9C48-B906-181614697495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A28ED15-1726-F341-92C7-C98085B0E4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2740" windowWidth="26440" windowHeight="15260" xr2:uid="{C8813234-4268-644D-B343-0A19B8C94F00}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17440" xr2:uid="{C8813234-4268-644D-B343-0A19B8C94F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Gen0:</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>gen2:</t>
+  </si>
+  <si>
+    <t>gen3:</t>
+  </si>
+  <si>
+    <t>gen4:</t>
   </si>
 </sst>
 </file>
@@ -105,6 +111,1927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fitness of 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Robots Over 50 Generations with Population Size 50</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Seed 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$AX$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.82177100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.339429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.339429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133.339429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.10531700000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.93445500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131.84525300000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131.84525300000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131.84525300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131.84525300000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>131.02427</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131.02427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>130.0984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130.0984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130.0984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>130.03032999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.03032999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130.03032999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130.03032999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>129.76121900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EB6-6542-81F2-10096FEA0371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Seed 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$AX$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.46976599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131.36406500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.36406500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130.52294900000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130.241939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.15893800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.15893800000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.15893800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130.15893800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130.148258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130.148258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130.148258</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130.148258</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>129.68334899999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>129.65439599999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>129.65439599999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>129.65439599999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129.65439599999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.65439599999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>129.601765</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129.601765</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>129.601765</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>129.601765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129.601765</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>129.55681799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EB6-6542-81F2-10096FEA0371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Seed 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$AX$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>133.470857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.470857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.257463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133.02504999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132.51993300000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.31214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132.31214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132.31214</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132.31214</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132.31214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132.205366</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132.205366</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>132.205366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132.205366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128.18097299999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>127.85333799999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127.85333799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7EB6-6542-81F2-10096FEA0371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Seed 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$AX$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.240601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.23840799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.23840799999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136.03603100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136.03603100000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136.03603100000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131.46059600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.46059600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131.46059600000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129.29988399999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.14773199999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.14773199999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>128.03635800000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127.982316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127.676519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7EB6-6542-81F2-10096FEA0371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Seed 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$AX$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>135.95007799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.95007799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.95007799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135.630289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135.08437900000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.08437900000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.38483500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132.954205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132.954205</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132.561443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>132.51735600000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>132.51735600000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>132.51735600000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132.12548799999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>131.00199900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7EB6-6542-81F2-10096FEA0371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="135655744"/>
+        <c:axId val="1270257440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135655744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270257440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1270257440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance from (-100,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> -100</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135655744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4ADE4A-80EA-8053-0FB4-14DF00A65AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF22357-D206-354F-9C0C-DD6D7671628C}">
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +2810,322 @@
         <v>127.85333799999999</v>
       </c>
     </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="B8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="C8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="E8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="F8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="H8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="I8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="J8" s="1">
+        <v>136.240601</v>
+      </c>
+      <c r="K8" s="1">
+        <v>136.23840799999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>136.23840799999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>136.03603100000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>136.03603100000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>136.03603100000001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>131.46059600000001</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>131.46059600000001</v>
+      </c>
+      <c r="R8" s="1">
+        <v>131.46059600000001</v>
+      </c>
+      <c r="S8" s="1">
+        <v>129.29988399999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>128.14773199999999</v>
+      </c>
+      <c r="U8" s="1">
+        <v>128.14773199999999</v>
+      </c>
+      <c r="V8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="W8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>128.03635800000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>127.982316</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>127.676519</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>127.676519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>135.95007799999999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>135.95007799999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>135.95007799999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="E10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="F10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="G10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="H10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="I10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="J10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="K10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="L10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="M10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="N10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="O10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="P10" s="1">
+        <v>135.630289</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>135.08437900000001</v>
+      </c>
+      <c r="R10" s="1">
+        <v>135.08437900000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="T10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="U10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="V10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="W10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="X10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>133.38483500000001</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>132.954205</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>132.954205</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>132.561443</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>132.51735600000001</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>132.51735600000001</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>132.51735600000001</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>132.12548799999999</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>131.00199900000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Graph Data.xlsx
+++ b/Graph Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/CS Classes/artificial-life/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A28ED15-1726-F341-92C7-C98085B0E4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4D73A-4110-3447-8456-E0C449957EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17440" xr2:uid="{C8813234-4268-644D-B343-0A19B8C94F00}"/>
   </bookViews>
